--- a/data/proshares_analysis_data.xlsx
+++ b/data/proshares_analysis_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markhendricks/Projects/finm-portfolio-2024/build_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UChicago MSFM\Lectures\FINM36700\finm-portfolio-2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4020152F-3AB0-D048-9F32-44E521805938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A91404-530B-4412-B8C3-239F01AD5BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="-1460" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="descriptions" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -186,7 +186,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -493,16 +493,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -510,7 +510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -518,7 +518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -526,7 +526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -534,7 +534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -542,7 +542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -550,7 +550,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -558,7 +558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -566,7 +566,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -574,7 +574,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -582,7 +582,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -598,7 +598,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -606,7 +606,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -614,7 +614,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -622,7 +622,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -639,14 +639,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F159"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>31</v>
       </c>
@@ -663,7 +669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>40786</v>
       </c>
@@ -683,7 +689,7 @@
         <v>-6.4888743736734034E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>40816</v>
       </c>
@@ -703,7 +709,7 @@
         <v>-2.214138652917863E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>40847</v>
       </c>
@@ -723,7 +729,7 @@
         <v>2.5239188418105352E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>40877</v>
       </c>
@@ -743,7 +749,7 @@
         <v>-7.9643459615242884E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>40908</v>
       </c>
@@ -763,7 +769,7 @@
         <v>1.8222382652639531E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>40939</v>
       </c>
@@ -783,7 +789,7 @@
         <v>1.698675094202029E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>40968</v>
       </c>
@@ -803,7 +809,7 @@
         <v>1.307044465977159E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>40999</v>
       </c>
@@ -823,7 +829,7 @@
         <v>-6.0927565299097042E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>41029</v>
       </c>
@@ -843,7 +849,7 @@
         <v>-2.887000021196795E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>41060</v>
       </c>
@@ -863,7 +869,7 @@
         <v>-1.265709766840695E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>41090</v>
       </c>
@@ -883,7 +889,7 @@
         <v>7.3247296825951214E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>41121</v>
       </c>
@@ -903,7 +909,7 @@
         <v>1.2367053110358571E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>41152</v>
       </c>
@@ -923,7 +929,7 @@
         <v>6.8237191803091068E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>41182</v>
       </c>
@@ -943,7 +949,7 @@
         <v>4.6385418370471498E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>41213</v>
       </c>
@@ -963,7 +969,7 @@
         <v>1.4193693825326199E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>41243</v>
       </c>
@@ -983,7 +989,7 @@
         <v>1.7716970356382871E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>41274</v>
       </c>
@@ -1003,7 +1009,7 @@
         <v>-4.6107495380927066E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>41305</v>
       </c>
@@ -1023,7 +1029,7 @@
         <v>5.6521739130432902E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>41333</v>
       </c>
@@ -1043,7 +1049,7 @@
         <v>-2.5774053011407011E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>41364</v>
       </c>
@@ -1063,7 +1069,7 @@
         <v>7.4764023452118522E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>41394</v>
       </c>
@@ -1083,7 +1089,7 @@
         <v>9.6207818794162847E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>41425</v>
       </c>
@@ -1103,7 +1109,7 @@
         <v>7.0313426185197869E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>41455</v>
       </c>
@@ -1123,7 +1129,7 @@
         <v>-2.775837346961274E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>41486</v>
       </c>
@@ -1143,7 +1149,7 @@
         <v>1.987428360140497E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>41517</v>
       </c>
@@ -1163,7 +1169,7 @@
         <v>-1.027496024323726E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>41547</v>
       </c>
@@ -1183,7 +1189,7 @@
         <v>2.2915348496453491E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>41578</v>
       </c>
@@ -1203,7 +1209,7 @@
         <v>1.4698641230258319E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>41608</v>
       </c>
@@ -1223,7 +1229,7 @@
         <v>6.5570746223166942E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>41639</v>
       </c>
@@ -1243,7 +1249,7 @@
         <v>5.3867975647849953E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>41670</v>
       </c>
@@ -1263,7 +1269,7 @@
         <v>-7.5930505357933997E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>41698</v>
       </c>
@@ -1283,7 +1289,7 @@
         <v>2.0868940180496679E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>41729</v>
       </c>
@@ -1303,7 +1309,7 @@
         <v>-4.4319097502013571E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>41759</v>
       </c>
@@ -1323,7 +1329,7 @@
         <v>2.396734155033275E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>41790</v>
       </c>
@@ -1343,7 +1349,7 @@
         <v>1.433818197496883E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>41820</v>
       </c>
@@ -1363,7 +1369,7 @@
         <v>9.4249577828355857E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>41851</v>
       </c>
@@ -1383,7 +1389,7 @@
         <v>-1.300436413750861E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>41882</v>
       </c>
@@ -1403,7 +1409,7 @@
         <v>1.8919956714490201E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>41912</v>
       </c>
@@ -1423,7 +1429,7 @@
         <v>-1.6246607359697959E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>41943</v>
       </c>
@@ -1443,7 +1449,7 @@
         <v>3.706956928875238E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>41973</v>
       </c>
@@ -1463,7 +1469,7 @@
         <v>1.2089856625711709E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>42004</v>
       </c>
@@ -1483,7 +1489,7 @@
         <v>-1.1876873616808999E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42035</v>
       </c>
@@ -1503,7 +1509,7 @@
         <v>-1.327247705361034E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>42063</v>
       </c>
@@ -1523,7 +1529,7 @@
         <v>3.4141253135182133E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>42094</v>
       </c>
@@ -1543,7 +1549,7 @@
         <v>-1.6697833437222529E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>42124</v>
       </c>
@@ -1563,7 +1569,7 @@
         <v>2.0055777766845311E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>42155</v>
       </c>
@@ -1583,7 +1589,7 @@
         <v>-3.3233506928043172E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>42185</v>
       </c>
@@ -1603,7 +1609,7 @@
         <v>-1.367182335052231E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>42216</v>
       </c>
@@ -1623,7 +1629,7 @@
         <v>-3.3705369112091432E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>42247</v>
       </c>
@@ -1643,7 +1649,7 @@
         <v>-1.691200698855921E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>42277</v>
       </c>
@@ -1663,7 +1669,7 @@
         <v>-9.2874068531162424E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>42308</v>
       </c>
@@ -1683,7 +1689,7 @@
         <v>8.6821058925810046E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>42338</v>
       </c>
@@ -1703,7 +1709,7 @@
         <v>-5.1636454400797449E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>42369</v>
       </c>
@@ -1723,7 +1729,7 @@
         <v>-1.0467140236157579E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>42400</v>
       </c>
@@ -1743,7 +1749,7 @@
         <v>-1.405627263147047E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>42429</v>
       </c>
@@ -1763,7 +1769,7 @@
         <v>3.5641670617923E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>42460</v>
       </c>
@@ -1783,7 +1789,7 @@
         <v>2.3435153932084951E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>42490</v>
       </c>
@@ -1803,7 +1809,7 @@
         <v>8.329225448541866E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>42521</v>
       </c>
@@ -1823,7 +1829,7 @@
         <v>-3.441519390071202E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>42551</v>
       </c>
@@ -1843,7 +1849,7 @@
         <v>6.9068086961938668E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>42582</v>
       </c>
@@ -1863,7 +1869,7 @@
         <v>7.8879600343357836E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>42613</v>
       </c>
@@ -1883,7 +1889,7 @@
         <v>-2.7238339305306609E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>42643</v>
       </c>
@@ -1903,7 +1909,7 @@
         <v>-3.3852403520651109E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>42674</v>
       </c>
@@ -1923,7 +1929,7 @@
         <v>-1.3653295569990511E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>42704</v>
       </c>
@@ -1943,7 +1949,7 @@
         <v>-1.349506078434437E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>42735</v>
       </c>
@@ -1963,7 +1969,7 @@
         <v>5.6316415997976774E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>42766</v>
       </c>
@@ -1983,7 +1989,7 @@
         <v>2.0921736189492002E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>42794</v>
       </c>
@@ -2003,7 +2009,7 @@
         <v>1.257392676197844E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>42825</v>
       </c>
@@ -2023,7 +2029,7 @@
         <v>-4.2632849773460713E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>42855</v>
       </c>
@@ -2043,7 +2049,7 @@
         <v>2.406920769284504E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>42886</v>
       </c>
@@ -2063,7 +2069,7 @@
         <v>4.458157887614167E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>42916</v>
       </c>
@@ -2083,7 +2089,7 @@
         <v>4.0957733466777668E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>42947</v>
       </c>
@@ -2103,7 +2109,7 @@
         <v>9.1817331431813809E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>42978</v>
       </c>
@@ -2123,7 +2129,7 @@
         <v>5.0524428371176988E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>43008</v>
       </c>
@@ -2143,7 +2149,7 @@
         <v>1.674421417475314E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>43039</v>
       </c>
@@ -2163,7 +2169,7 @@
         <v>8.3694323275926852E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>43069</v>
       </c>
@@ -2183,7 +2189,7 @@
         <v>5.9723833401938986E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>43100</v>
       </c>
@@ -2203,7 +2209,7 @@
         <v>4.2890196632767719E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>43131</v>
       </c>
@@ -2223,7 +2229,7 @@
         <v>2.003859559447219E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>43159</v>
       </c>
@@ -2243,7 +2249,7 @@
         <v>-1.3526320949638571E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>43190</v>
       </c>
@@ -2263,7 +2269,7 @@
         <v>-4.8957535779492467E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>43220</v>
       </c>
@@ -2283,7 +2289,7 @@
         <v>-2.6263806994311079E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>43251</v>
       </c>
@@ -2303,7 +2309,7 @@
         <v>6.579532979260172E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>43281</v>
       </c>
@@ -2323,7 +2329,7 @@
         <v>-6.8607727396664542E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>43312</v>
       </c>
@@ -2343,7 +2349,7 @@
         <v>8.8819304285883138E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>43343</v>
       </c>
@@ -2363,7 +2369,7 @@
         <v>2.6109660574411549E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>43373</v>
       </c>
@@ -2383,7 +2389,7 @@
         <v>-6.4920774647880819E-4</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>43404</v>
       </c>
@@ -2403,7 +2409,7 @@
         <v>-2.7673482270987319E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>43434</v>
       </c>
@@ -2423,7 +2429,7 @@
         <v>2.6800240069757559E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>43465</v>
       </c>
@@ -2443,7 +2449,7 @@
         <v>-1.738865276528145E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>43496</v>
       </c>
@@ -2463,7 +2469,7 @@
         <v>2.770349483169476E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>43524</v>
       </c>
@@ -2483,7 +2489,7 @@
         <v>8.7569199798691599E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>43555</v>
       </c>
@@ -2503,7 +2509,7 @@
         <v>4.3422987945038738E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>43585</v>
       </c>
@@ -2523,7 +2529,7 @@
         <v>6.652708734256052E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>43616</v>
       </c>
@@ -2543,7 +2549,7 @@
         <v>-1.304934259824486E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>43646</v>
       </c>
@@ -2563,7 +2569,7 @@
         <v>1.8243971452592159E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>43677</v>
       </c>
@@ -2583,7 +2589,7 @@
         <v>-1.316684428569914E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>43708</v>
       </c>
@@ -2603,7 +2609,7 @@
         <v>-2.960982769483977E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>43738</v>
       </c>
@@ -2623,7 +2629,7 @@
         <v>4.2921120113383893E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>43769</v>
       </c>
@@ -2643,7 +2649,7 @@
         <v>9.5332317328222782E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>43799</v>
       </c>
@@ -2663,7 +2669,7 @@
         <v>4.8819328851321666E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>43830</v>
       </c>
@@ -2683,7 +2689,7 @@
         <v>1.7070083790770459E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>43861</v>
       </c>
@@ -2703,7 +2709,7 @@
         <v>-5.8448196848450706E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>43890</v>
       </c>
@@ -2723,7 +2729,7 @@
         <v>-1.469441016694328E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>43921</v>
       </c>
@@ -2743,7 +2749,7 @@
         <v>-5.6346898527358302E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>43951</v>
       </c>
@@ -2763,7 +2769,7 @@
         <v>3.0910221157769872E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>43982</v>
       </c>
@@ -2783,7 +2789,7 @@
         <v>1.9758356886014908E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>44012</v>
       </c>
@@ -2803,7 +2809,7 @@
         <v>1.3030686686715811E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>44043</v>
       </c>
@@ -2823,7 +2829,7 @@
         <v>1.781206020433368E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>44074</v>
       </c>
@@ -2843,7 +2849,7 @@
         <v>1.2637963852327291E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>44104</v>
       </c>
@@ -2863,7 +2869,7 @@
         <v>-8.3213175129857042E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>44135</v>
       </c>
@@ -2883,7 +2889,7 @@
         <v>-4.5161516361853504E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>44165</v>
       </c>
@@ -2903,7 +2909,7 @@
         <v>3.3386008566470997E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>44196</v>
       </c>
@@ -2923,7 +2929,7 @@
         <v>2.149739286212982E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>44227</v>
       </c>
@@ -2943,7 +2949,7 @@
         <v>1.2536300257728341E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>44255</v>
       </c>
@@ -2963,7 +2969,7 @@
         <v>1.8747606599955891E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>44286</v>
       </c>
@@ -2983,7 +2989,7 @@
         <v>-7.1792281000305769E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>44316</v>
       </c>
@@ -3003,7 +3009,7 @@
         <v>5.9723877499096023E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>44347</v>
       </c>
@@ -3023,7 +3029,7 @@
         <v>5.9402579769178843E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>44377</v>
       </c>
@@ -3043,7 +3049,7 @@
         <v>2.4877843831982989E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>44408</v>
       </c>
@@ -3063,7 +3069,7 @@
         <v>-3.4122146725230622E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>44439</v>
       </c>
@@ -3083,7 +3089,7 @@
         <v>1.2450537260551009E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>44469</v>
       </c>
@@ -3103,7 +3109,7 @@
         <v>-1.335776248383613E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>44500</v>
       </c>
@@ -3123,7 +3129,7 @@
         <v>1.0706193100304301E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>44530</v>
       </c>
@@ -3143,7 +3149,7 @@
         <v>-1.4953934320755089E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>44561</v>
       </c>
@@ -3163,7 +3169,7 @@
         <v>8.1779830784096674E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>44592</v>
       </c>
@@ -3183,7 +3189,7 @@
         <v>-2.0761673223218868E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>44620</v>
       </c>
@@ -3203,7 +3209,7 @@
         <v>-6.8137871765753264E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>44651</v>
       </c>
@@ -3223,7 +3229,7 @@
         <v>-2.5203360905947658E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>44681</v>
       </c>
@@ -3243,7 +3249,7 @@
         <v>-3.3397935262670542E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>44712</v>
       </c>
@@ -3263,7 +3269,7 @@
         <v>-4.0242881817695864E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>44742</v>
       </c>
@@ -3283,7 +3289,7 @@
         <v>-3.3679580927180708E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>44773</v>
       </c>
@@ -3303,7 +3309,7 @@
         <v>1.8819890026124501E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>44804</v>
       </c>
@@ -3323,7 +3329,7 @@
         <v>-1.1633228248078661E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>44834</v>
       </c>
@@ -3343,7 +3349,7 @@
         <v>-3.9804651470442431E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>44865</v>
       </c>
@@ -3363,7 +3369,7 @@
         <v>1.478011611308205E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>44895</v>
       </c>
@@ -3383,7 +3389,7 @@
         <v>3.9787448285745652E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>44926</v>
       </c>
@@ -3403,7 +3409,7 @@
         <v>-8.1607782118103822E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>44957</v>
       </c>
@@ -3423,7 +3429,7 @@
         <v>2.916342120756665E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>44985</v>
       </c>
@@ -3443,7 +3449,7 @@
         <v>-8.5348607488789918E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>45016</v>
       </c>
@@ -3463,7 +3469,7 @@
         <v>5.8559591731415228E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>45046</v>
       </c>
@@ -3483,7 +3489,7 @@
         <v>5.1342164708227944E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>45077</v>
       </c>
@@ -3503,7 +3509,7 @@
         <v>-6.4727213433201092E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>45107</v>
       </c>
@@ -3523,7 +3529,7 @@
         <v>2.262729189634682E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>45138</v>
       </c>
@@ -3543,7 +3549,7 @@
         <v>1.9440170537605269E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>45169</v>
       </c>
@@ -3563,7 +3569,7 @@
         <v>-5.917281267646568E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>45199</v>
       </c>
@@ -3583,7 +3589,7 @@
         <v>-6.6135107034902552E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>45230</v>
       </c>
@@ -3603,7 +3609,7 @@
         <v>-1.2320435287390239E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>45260</v>
       </c>
@@ -3623,7 +3629,7 @@
         <v>3.2702901856205502E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>45291</v>
       </c>
@@ -3643,7 +3649,7 @@
         <v>2.2731133838469701E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>45322</v>
       </c>
@@ -3663,7 +3669,7 @@
         <v>-3.8737541528239832E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>45351</v>
       </c>
@@ -3683,7 +3689,7 @@
         <v>1.556194427583257E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>45382</v>
       </c>
@@ -3703,7 +3709,7 @@
         <v>1.444991789819383E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>45412</v>
       </c>
@@ -3723,7 +3729,7 @@
         <v>-1.197798640336678E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>45443</v>
       </c>
@@ -3743,7 +3749,7 @@
         <v>1.3479685452162601E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>45473</v>
       </c>
@@ -3763,7 +3769,7 @@
         <v>3.1876992312018788E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>45504</v>
       </c>
@@ -3783,7 +3789,7 @@
         <v>1.127940702545915E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>45535</v>
       </c>
@@ -3803,7 +3809,7 @@
         <v>7.6481835564055078E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>45565</v>
       </c>
@@ -3832,11 +3838,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G159"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
@@ -3856,7 +3867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>40786</v>
       </c>
@@ -3879,7 +3890,7 @@
         <v>-8.8913452840987173E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>40816</v>
       </c>
@@ -3902,7 +3913,7 @@
         <v>-0.1115048472081108</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>40847</v>
       </c>
@@ -3925,7 +3936,7 @@
         <v>0.15101051744014679</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>40877</v>
       </c>
@@ -3948,7 +3959,7 @@
         <v>-3.7843611074646071E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>40908</v>
       </c>
@@ -3971,7 +3982,7 @@
         <v>5.1441567780203812E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>40939</v>
       </c>
@@ -3994,7 +4005,7 @@
         <v>7.1458630066036477E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>40968</v>
       </c>
@@ -4017,7 +4028,7 @@
         <v>2.5689209806794899E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>40999</v>
       </c>
@@ -4040,7 +4051,7 @@
         <v>2.4851398240932191E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>41029</v>
       </c>
@@ -4063,7 +4074,7 @@
         <v>-1.6181183266989582E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>41060</v>
       </c>
@@ -4086,7 +4097,7 @@
         <v>-6.5792202860022408E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>41090</v>
       </c>
@@ -4109,7 +4120,7 @@
         <v>5.0523165636804812E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>41121</v>
       </c>
@@ -4132,7 +4143,7 @@
         <v>-1.52080502350862E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>41152</v>
       </c>
@@ -4155,7 +4166,7 @@
         <v>3.535334452734995E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>41182</v>
       </c>
@@ -4178,7 +4189,7 @@
         <v>3.2606141112757392E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>41213</v>
       </c>
@@ -4201,7 +4212,7 @@
         <v>-2.169235727856678E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>41243</v>
       </c>
@@ -4224,7 +4235,7 @@
         <v>5.512631367522669E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>41274</v>
       </c>
@@ -4247,7 +4258,7 @@
         <v>3.6155157200709047E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>41305</v>
       </c>
@@ -4270,7 +4281,7 @@
         <v>6.2410110107750112E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>41333</v>
       </c>
@@ -4293,7 +4304,7 @@
         <v>1.0046735072191341E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>41364</v>
       </c>
@@ -4316,7 +4327,7 @@
         <v>4.6590738720667442E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>41394</v>
       </c>
@@ -4339,7 +4350,7 @@
         <v>-3.4948454117496031E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>41425</v>
       </c>
@@ -4362,7 +4373,7 @@
         <v>3.9319200826833489E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>41455</v>
       </c>
@@ -4385,7 +4396,7 @@
         <v>-8.1796957534741033E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>41486</v>
       </c>
@@ -4408,7 +4419,7 @@
         <v>7.3291480424428013E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>41517</v>
       </c>
@@ -4431,7 +4442,7 @@
         <v>-3.1595065224258152E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>41547</v>
       </c>
@@ -4454,7 +4465,7 @@
         <v>6.4894356544781706E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>41578</v>
       </c>
@@ -4477,7 +4488,7 @@
         <v>2.4199925271325862E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>41608</v>
       </c>
@@ -4500,7 +4511,7 @@
         <v>3.9564385583873429E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>41639</v>
       </c>
@@ -4523,7 +4534,7 @@
         <v>2.0208089560735051E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>41670</v>
       </c>
@@ -4546,7 +4557,7 @@
         <v>-2.773833569985806E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>41698</v>
       </c>
@@ -4569,7 +4580,7 @@
         <v>4.7788793812736603E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>41729</v>
       </c>
@@ -4592,7 +4603,7 @@
         <v>-7.4843980973433588E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>41759</v>
       </c>
@@ -4615,7 +4626,7 @@
         <v>-3.7476722302383192E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>41790</v>
       </c>
@@ -4638,7 +4649,7 @@
         <v>7.8591053216694462E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>41820</v>
       </c>
@@ -4661,7 +4672,7 @@
         <v>5.272016433635951E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>41851</v>
       </c>
@@ -4684,7 +4695,7 @@
         <v>-6.05415885085544E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>41882</v>
       </c>
@@ -4707,7 +4718,7 @@
         <v>4.8296485354268448E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>41912</v>
       </c>
@@ -4730,7 +4741,7 @@
         <v>-5.9283259502539543E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>41943</v>
       </c>
@@ -4753,7 +4764,7 @@
         <v>6.5935593659713465E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>41973</v>
       </c>
@@ -4776,7 +4787,7 @@
         <v>1.114973694662069E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>42004</v>
       </c>
@@ -4799,7 +4810,7 @@
         <v>2.8929602739564911E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42035</v>
       </c>
@@ -4822,7 +4833,7 @@
         <v>-3.2770514058105833E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>42063</v>
       </c>
@@ -4845,7 +4856,7 @@
         <v>5.9464391345301237E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>42094</v>
       </c>
@@ -4868,7 +4879,7 @@
         <v>1.77022144722454E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>42124</v>
       </c>
@@ -4891,7 +4902,7 @@
         <v>-2.5650083890626289E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>42155</v>
       </c>
@@ -4914,7 +4925,7 @@
         <v>2.2364211265956339E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>42185</v>
       </c>
@@ -4937,7 +4948,7 @@
         <v>7.8295819641034381E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>42216</v>
       </c>
@@ -4960,7 +4971,7 @@
         <v>-1.1038470980823559E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>42247</v>
       </c>
@@ -4983,7 +4994,7 @@
         <v>-6.3109456166965505E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>42277</v>
       </c>
@@ -5006,7 +5017,7 @@
         <v>-4.9361683753529013E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>42308</v>
       </c>
@@ -5029,7 +5040,7 @@
         <v>5.6227411947241013E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>42338</v>
       </c>
@@ -5052,7 +5063,7 @@
         <v>3.2598465368162133E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>42369</v>
       </c>
@@ -5075,7 +5086,7 @@
         <v>-5.0305196913294492E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>42400</v>
       </c>
@@ -5098,7 +5109,7 @@
         <v>-8.5774909256893128E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>42429</v>
       </c>
@@ -5121,7 +5132,7 @@
         <v>-2.2336880271488502E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>42460</v>
       </c>
@@ -5144,7 +5155,7 @@
         <v>8.0130628406106297E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>42490</v>
       </c>
@@ -5167,7 +5178,7 @@
         <v>1.6722485836159651E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>42521</v>
       </c>
@@ -5190,7 +5201,7 @@
         <v>2.2403821951348268E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>42551</v>
       </c>
@@ -5213,7 +5224,7 @@
         <v>-1.732090380087703E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>42582</v>
       </c>
@@ -5236,7 +5247,7 @@
         <v>5.8743608160532368E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>42613</v>
       </c>
@@ -5259,7 +5270,7 @@
         <v>1.7841778202676961E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>42643</v>
       </c>
@@ -5282,7 +5293,7 @@
         <v>1.074013162351006E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>42674</v>
       </c>
@@ -5305,7 +5316,7 @@
         <v>-4.5970972379709152E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>42704</v>
       </c>
@@ -5328,7 +5339,7 @@
         <v>0.110632925382109</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>42735</v>
       </c>
@@ -5351,7 +5362,7 @@
         <v>2.884345365845431E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>42766</v>
       </c>
@@ -5374,7 +5385,7 @@
         <v>2.8179912099657312E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>42794</v>
       </c>
@@ -5397,7 +5408,7 @@
         <v>1.9301061909868359E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>42825</v>
       </c>
@@ -5420,7 +5431,7 @@
         <v>2.5900711267223819E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>42855</v>
       </c>
@@ -5443,7 +5454,7 @@
         <v>1.149196764772609E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>42886</v>
       </c>
@@ -5466,7 +5477,7 @@
         <v>-1.9703137284739599E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>42916</v>
       </c>
@@ -5489,7 +5500,7 @@
         <v>3.3744102038374413E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>42947</v>
       </c>
@@ -5512,7 +5523,7 @@
         <v>8.5249158262326041E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>42978</v>
       </c>
@@ -5535,7 +5546,7 @@
         <v>-1.2578470033074661E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>43008</v>
       </c>
@@ -5558,7 +5569,7 @@
         <v>6.3037733107670135E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>43039</v>
       </c>
@@ -5581,7 +5592,7 @@
         <v>7.2882420302169404E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>43069</v>
       </c>
@@ -5604,7 +5615,7 @@
         <v>2.94121745763396E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>43100</v>
       </c>
@@ -5627,7 +5638,7 @@
         <v>-3.982854488299381E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>43131</v>
       </c>
@@ -5650,7 +5661,7 @@
         <v>2.558003785608132E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>43159</v>
       </c>
@@ -5673,7 +5684,7 @@
         <v>-3.8436616132553558E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>43190</v>
       </c>
@@ -5696,7 +5707,7 @@
         <v>1.2177756951179401E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>43220</v>
       </c>
@@ -5719,7 +5730,7 @@
         <v>9.8139055889956417E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>43251</v>
       </c>
@@ -5742,7 +5753,7 @@
         <v>6.1635372776622122E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>43281</v>
       </c>
@@ -5765,7 +5776,7 @@
         <v>6.1434218257927498E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>43312</v>
       </c>
@@ -5788,7 +5799,7 @@
         <v>1.6491938404051831E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>43343</v>
       </c>
@@ -5811,7 +5822,7 @@
         <v>4.3105493682353613E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>43373</v>
       </c>
@@ -5834,7 +5845,7 @@
         <v>-2.3247522196370829E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>43404</v>
       </c>
@@ -5857,7 +5868,7 @@
         <v>-0.10987837197172901</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>43434</v>
       </c>
@@ -5880,7 +5891,7 @@
         <v>1.726349807638794E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>43465</v>
       </c>
@@ -5903,7 +5914,7 @@
         <v>-0.11971969191900229</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>43496</v>
       </c>
@@ -5926,7 +5937,7 @@
         <v>0.113218921357394</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>43524</v>
       </c>
@@ -5949,7 +5960,7 @@
         <v>5.1791575690096403E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>43555</v>
       </c>
@@ -5972,7 +5983,7 @@
         <v>-2.0933133989792241E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>43585</v>
       </c>
@@ -5995,7 +6006,7 @@
         <v>3.3967038352282763E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>43616</v>
       </c>
@@ -6018,7 +6029,7 @@
         <v>-7.8526409280356702E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>43646</v>
       </c>
@@ -6041,7 +6052,7 @@
         <v>6.9848996651575179E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>43677</v>
       </c>
@@ -6064,7 +6075,7 @@
         <v>6.8168433958171182E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>43708</v>
       </c>
@@ -6087,7 +6098,7 @@
         <v>-4.9310343412175439E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>43738</v>
       </c>
@@ -6110,7 +6121,7 @@
         <v>2.0368967152467828E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>43769</v>
       </c>
@@ -6133,7 +6144,7 @@
         <v>2.7157152236755518E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>43799</v>
       </c>
@@ -6156,7 +6167,7 @@
         <v>4.0656323443487352E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>43830</v>
       </c>
@@ -6179,7 +6190,7 @@
         <v>2.786713923409256E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>43861</v>
       </c>
@@ -6202,7 +6213,7 @@
         <v>-3.1025784213668309E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>43890</v>
       </c>
@@ -6225,7 +6236,7 @@
         <v>-8.8456896357563708E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>43921</v>
       </c>
@@ -6248,7 +6259,7 @@
         <v>-0.21477115823437931</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>43951</v>
       </c>
@@ -6271,7 +6282,7 @@
         <v>0.13847566268895961</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>43982</v>
       </c>
@@ -6294,7 +6305,7 @@
         <v>6.5919710473861581E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>44012</v>
       </c>
@@ -6317,7 +6328,7 @@
         <v>3.4298857797853799E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>44043</v>
       </c>
@@ -6340,7 +6351,7 @@
         <v>2.9193791830634419E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>44074</v>
       </c>
@@ -6363,7 +6374,7 @@
         <v>5.476334103736491E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>44104</v>
       </c>
@@ -6386,7 +6397,7 @@
         <v>-3.2610061504708909E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>44135</v>
       </c>
@@ -6409,7 +6420,7 @@
         <v>2.2030774415739088E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>44165</v>
       </c>
@@ -6432,7 +6443,7 @@
         <v>0.1824421617848713</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>44196</v>
       </c>
@@ -6455,7 +6466,7 @@
         <v>8.6466412228376255E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>44227</v>
       </c>
@@ -6478,7 +6489,7 @@
         <v>4.84545195430377E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>44255</v>
       </c>
@@ -6501,7 +6512,7 @@
         <v>6.2026072484546953E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>44286</v>
       </c>
@@ -6524,7 +6535,7 @@
         <v>1.395001488795611E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>44316</v>
       </c>
@@ -6547,7 +6558,7 @@
         <v>1.7878364034487278E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>44347</v>
       </c>
@@ -6570,7 +6581,7 @@
         <v>2.7124079751961179E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>44377</v>
       </c>
@@ -6593,7 +6604,7 @@
         <v>1.8690929543790261E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>44408</v>
       </c>
@@ -6616,7 +6627,7 @@
         <v>-3.6273220847353072E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>44439</v>
       </c>
@@ -6639,7 +6650,7 @@
         <v>2.203126078353335E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>44469</v>
       </c>
@@ -6662,7 +6673,7 @@
         <v>-2.8803927291093271E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>44500</v>
       </c>
@@ -6685,7 +6696,7 @@
         <v>4.2514039271862807E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>44530</v>
       </c>
@@ -6708,7 +6719,7 @@
         <v>-4.3323819512712143E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>44561</v>
       </c>
@@ -6731,7 +6742,7 @@
         <v>2.2712600560771849E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>44592</v>
       </c>
@@ -6754,7 +6765,7 @@
         <v>-9.5347325781507508E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>44620</v>
       </c>
@@ -6777,7 +6788,7 @@
         <v>1.03359559869014E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>44651</v>
       </c>
@@ -6800,7 +6811,7 @@
         <v>1.157367676866738E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>44681</v>
       </c>
@@ -6823,7 +6834,7 @@
         <v>-9.8991611830394399E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>44712</v>
       </c>
@@ -6846,7 +6857,7 @@
         <v>1.9464684739922691E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>44742</v>
       </c>
@@ -6869,7 +6880,7 @@
         <v>-8.3663081114038418E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>44773</v>
       </c>
@@ -6892,7 +6903,7 @@
         <v>0.105632955939061</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>44804</v>
       </c>
@@ -6915,7 +6926,7 @@
         <v>-2.0026976485846171E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>44834</v>
       </c>
@@ -6938,7 +6949,7 @@
         <v>-9.6601338415963744E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>44865</v>
       </c>
@@ -6961,7 +6972,7 @@
         <v>0.1116295690666449</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>44895</v>
       </c>
@@ -6984,7 +6995,7 @@
         <v>2.2036861250805059E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>44926</v>
       </c>
@@ -7007,7 +7018,7 @@
         <v>-6.514402650641038E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>44957</v>
       </c>
@@ -7030,7 +7041,7 @@
         <v>9.8187862873677645E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>44985</v>
       </c>
@@ -7053,7 +7064,7 @@
         <v>-1.7234198064153609E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>45016</v>
       </c>
@@ -7076,7 +7087,7 @@
         <v>-4.8475566630033828E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>45046</v>
       </c>
@@ -7099,7 +7110,7 @@
         <v>-1.7937527409161769E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>45077</v>
       </c>
@@ -7122,7 +7133,7 @@
         <v>-8.1620319669397645E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>45107</v>
       </c>
@@ -7145,7 +7156,7 @@
         <v>8.0671860471668744E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>45138</v>
       </c>
@@ -7168,7 +7179,7 @@
         <v>6.1088062018535672E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>45169</v>
       </c>
@@ -7191,7 +7202,7 @@
         <v>-5.082773600292001E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>45199</v>
       </c>
@@ -7214,7 +7225,7 @@
         <v>-5.8536672183957188E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>45230</v>
       </c>
@@ -7237,7 +7248,7 @@
         <v>-6.9141068517226456E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>45260</v>
       </c>
@@ -7260,7 +7271,7 @@
         <v>9.2025608345913223E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>45291</v>
       </c>
@@ -7283,7 +7294,7 @@
         <v>0.1212606545597994</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>45322</v>
       </c>
@@ -7306,7 +7317,7 @@
         <v>-3.9011906120124729E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>45351</v>
       </c>
@@ -7329,7 +7340,7 @@
         <v>5.6252807881052018E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>45382</v>
       </c>
@@ -7352,7 +7363,7 @@
         <v>3.4870017914562679E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>45412</v>
       </c>
@@ -7375,7 +7386,7 @@
         <v>-6.8473867815880274E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>45443</v>
       </c>
@@ -7398,7 +7409,7 @@
         <v>5.0383225007165189E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>45473</v>
       </c>
@@ -7421,7 +7432,7 @@
         <v>-1.1242603260946501E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>45504</v>
       </c>
@@ -7444,7 +7455,7 @@
         <v>0.10335618531769079</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>45535</v>
       </c>
@@ -7467,7 +7478,7 @@
         <v>-1.688537434602844E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>45565</v>
       </c>
@@ -7499,11 +7510,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F159"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
@@ -7520,7 +7536,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>40786</v>
       </c>
@@ -7534,7 +7550,7 @@
         <v>-0.21085387956092061</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>40816</v>
       </c>
@@ -7548,7 +7564,7 @@
         <v>-0.2070026433245222</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>40847</v>
       </c>
@@ -7562,7 +7578,7 @@
         <v>0.32606557377049161</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>40877</v>
       </c>
@@ -7576,7 +7592,7 @@
         <v>-3.3502287056496383E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>40908</v>
       </c>
@@ -7590,7 +7606,7 @@
         <v>2.293851795002988E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>40939</v>
       </c>
@@ -7604,7 +7620,7 @@
         <v>0.1390046682227408</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>40968</v>
       </c>
@@ -7618,7 +7634,7 @@
         <v>0.13239653090350201</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>40999</v>
       </c>
@@ -7632,7 +7648,7 @@
         <v>9.290677007594117E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>41029</v>
       </c>
@@ -7646,7 +7662,7 @@
         <v>-2.3802483737433541E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>41060</v>
       </c>
@@ -7660,7 +7676,7 @@
         <v>-0.1734968953505982</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>41090</v>
       </c>
@@ -7674,7 +7690,7 @@
         <v>0.1146699893722285</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>41121</v>
       </c>
@@ -7688,7 +7704,7 @@
         <v>3.5178853235139362E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>41152</v>
       </c>
@@ -7702,7 +7718,7 @@
         <v>6.5267102839357216E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>41182</v>
       </c>
@@ -7716,7 +7732,7 @@
         <v>7.5161742345189575E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>41213</v>
       </c>
@@ -7730,7 +7746,7 @@
         <v>-5.9619544118462597E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>41243</v>
       </c>
@@ -7744,7 +7760,7 @@
         <v>1.0114413776834089E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>41274</v>
       </c>
@@ -7758,7 +7774,7 @@
         <v>2.8141877098233788E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>41305</v>
       </c>
@@ -7772,7 +7788,7 @@
         <v>0.15389420483261879</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>41333</v>
       </c>
@@ -7786,7 +7802,7 @@
         <v>3.5606191097221629E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>41364</v>
       </c>
@@ -7800,7 +7816,7 @@
         <v>0.1103692439290975</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>41394</v>
       </c>
@@ -7814,7 +7830,7 @@
         <v>5.4503434550940533E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>41425</v>
       </c>
@@ -7828,7 +7844,7 @@
         <v>6.8022241162384756E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>41455</v>
       </c>
@@ -7842,7 +7858,7 @@
         <v>-5.2232566977009287E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>41486</v>
       </c>
@@ -7856,7 +7872,7 @@
         <v>0.16409053547442909</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>41517</v>
       </c>
@@ -7870,7 +7886,7 @@
         <v>-9.2136534288568162E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>41547</v>
       </c>
@@ -7884,7 +7900,7 @@
         <v>9.5986038394415329E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>41578</v>
       </c>
@@ -7898,7 +7914,7 @@
         <v>0.1376003877042371</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>41608</v>
       </c>
@@ -7912,7 +7928,7 @@
         <v>8.8747223321059998E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>41639</v>
       </c>
@@ -7926,7 +7942,7 @@
         <v>7.536438463365891E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>41670</v>
       </c>
@@ -7940,7 +7956,7 @@
         <v>-0.1071577087015283</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>41698</v>
       </c>
@@ -7954,7 +7970,7 @@
         <v>0.13653829359881239</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>41729</v>
       </c>
@@ -7971,7 +7987,7 @@
         <v>2.1424821032950399E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>41759</v>
       </c>
@@ -7988,7 +8004,7 @@
         <v>1.658726178535597E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>41790</v>
       </c>
@@ -8005,7 +8021,7 @@
         <v>6.621609955231067E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>41820</v>
       </c>
@@ -8022,7 +8038,7 @@
         <v>6.2254198861796173E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>41851</v>
       </c>
@@ -8039,7 +8055,7 @@
         <v>-4.4395321994032733E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>41882</v>
       </c>
@@ -8056,7 +8072,7 @@
         <v>0.1195232289162118</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>41912</v>
       </c>
@@ -8073,7 +8089,7 @@
         <v>-4.434786149054426E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>41943</v>
       </c>
@@ -8090,7 +8106,7 @@
         <v>6.0326555826561101E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>41973</v>
       </c>
@@ -8107,7 +8123,7 @@
         <v>8.3412855463923741E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>42004</v>
       </c>
@@ -8124,7 +8140,7 @@
         <v>-1.5362934255542139E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42035</v>
       </c>
@@ -8141,7 +8157,7 @@
         <v>-9.4717514124293634E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>42063</v>
       </c>
@@ -8158,7 +8174,7 @@
         <v>0.17484735960724351</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>42094</v>
       </c>
@@ -8175,7 +8191,7 @@
         <v>-5.2845924338872592E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>42124</v>
       </c>
@@ -8192,7 +8208,7 @@
         <v>2.59295956329102E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>42155</v>
       </c>
@@ -8209,7 +8225,7 @@
         <v>3.4321586063632108E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>42185</v>
       </c>
@@ -8226,7 +8242,7 @@
         <v>-6.2075526545281479E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>42216</v>
       </c>
@@ -8243,7 +8259,7 @@
         <v>6.1741613133476043E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>42247</v>
       </c>
@@ -8260,7 +8276,7 @@
         <v>-0.1886510393631137</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>42277</v>
       </c>
@@ -8277,7 +8293,7 @@
         <v>-8.6368740664827692E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>42308</v>
       </c>
@@ -8294,7 +8310,7 @@
         <v>0.26789656448013738</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>42338</v>
       </c>
@@ -8311,7 +8327,7 @@
         <v>8.150511524597448E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>42369</v>
       </c>
@@ -8328,7 +8344,7 @@
         <v>-6.0559948467563518E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>42400</v>
       </c>
@@ -8345,7 +8361,7 @@
         <v>-0.15378117857497781</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>42429</v>
       </c>
@@ -8362,7 +8378,7 @@
         <v>-1.6804650343491101E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>42460</v>
       </c>
@@ -8379,7 +8395,7 @@
         <v>0.21498017294921401</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>42490</v>
       </c>
@@ -8396,7 +8412,7 @@
         <v>8.0512765058051716E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>42521</v>
       </c>
@@ -8413,7 +8429,7 @@
         <v>4.6546780831269167E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>42551</v>
       </c>
@@ -8430,7 +8446,7 @@
         <v>-2.0500396030378449E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>42582</v>
       </c>
@@ -8447,7 +8463,7 @@
         <v>0.11133106120733929</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>42613</v>
       </c>
@@ -8464,7 +8480,7 @@
         <v>1.075467576332922E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>42643</v>
       </c>
@@ -8481,7 +8497,7 @@
         <v>-5.3463817501218092E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>42674</v>
       </c>
@@ -8498,7 +8514,7 @@
         <v>-5.6215139778413407E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>42704</v>
       </c>
@@ -8515,7 +8531,7 @@
         <v>0.1104991640365858</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>42735</v>
       </c>
@@ -8532,7 +8548,7 @@
         <v>5.9602595687809012E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>42766</v>
       </c>
@@ -8549,7 +8565,7 @@
         <v>5.1356670136540883E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>42794</v>
       </c>
@@ -8566,7 +8582,7 @@
         <v>0.1190954555966697</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>42825</v>
       </c>
@@ -8583,7 +8599,7 @@
         <v>-2.1827997959275041E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>42855</v>
       </c>
@@ -8600,7 +8616,7 @@
         <v>2.7707123856862689E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>42886</v>
       </c>
@@ -8620,7 +8636,7 @@
         <v>3.6992253920272063E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>42916</v>
       </c>
@@ -8640,7 +8656,7 @@
         <v>1.5145994267113719E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>42947</v>
       </c>
@@ -8660,7 +8676,7 @@
         <v>5.8728867299201903E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>42978</v>
       </c>
@@ -8680,7 +8696,7 @@
         <v>2.0906907755331439E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>43008</v>
       </c>
@@ -8700,7 +8716,7 @@
         <v>5.6894753164735468E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>43039</v>
       </c>
@@ -8720,7 +8736,7 @@
         <v>6.8349027662923056E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>43069</v>
       </c>
@@ -8740,7 +8756,7 @@
         <v>8.8720873325809357E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>43100</v>
       </c>
@@ -8760,7 +8776,7 @@
         <v>3.4548556960167343E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>43131</v>
       </c>
@@ -8780,7 +8796,7 @@
         <v>0.18215957861880591</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>43159</v>
       </c>
@@ -8800,7 +8816,7 @@
         <v>-0.13531911382482781</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>43190</v>
       </c>
@@ -8820,7 +8836,7 @@
         <v>-8.6875241271920478E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>43220</v>
       </c>
@@ -8840,7 +8856,7 @@
         <v>-1.3775413262397951E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>43251</v>
       </c>
@@ -8860,7 +8876,7 @@
         <v>6.4648242401179834E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>43281</v>
       </c>
@@ -8880,7 +8896,7 @@
         <v>1.2849553884577199E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>43312</v>
       </c>
@@ -8900,7 +8916,7 @@
         <v>0.1072974057883431</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>43343</v>
       </c>
@@ -8920,7 +8936,7 @@
         <v>9.0924663673557227E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>43373</v>
       </c>
@@ -8940,7 +8956,7 @@
         <v>1.197027515565363E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>43404</v>
       </c>
@@ -8960,7 +8976,7 @@
         <v>-0.2077885992862375</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>43434</v>
       </c>
@@ -8980,7 +8996,7 @@
         <v>4.2757584039355027E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>43465</v>
       </c>
@@ -9000,7 +9016,7 @@
         <v>-0.26220585601523638</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>43496</v>
       </c>
@@ -9020,7 +9036,7 @@
         <v>0.23893286599842509</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>43524</v>
       </c>
@@ -9040,7 +9056,7 @@
         <v>9.2828435846829649E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>43555</v>
       </c>
@@ -9060,7 +9076,7 @@
         <v>4.8499663287884458E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>43585</v>
       </c>
@@ -9080,7 +9096,7 @@
         <v>0.1180992021620451</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>43616</v>
       </c>
@@ -9100,7 +9116,7 @@
         <v>-0.1889290909769108</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>43646</v>
       </c>
@@ -9120,7 +9136,7 @@
         <v>0.213658940397351</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>43677</v>
       </c>
@@ -9140,7 +9156,7 @@
         <v>3.8041212892859999E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>43708</v>
       </c>
@@ -9160,7 +9176,7 @@
         <v>-6.6179450019529962E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>43738</v>
       </c>
@@ -9180,7 +9196,7 @@
         <v>5.2961596197147909E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>43769</v>
       </c>
@@ -9200,7 +9216,7 @@
         <v>5.6995203373973569E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>43799</v>
       </c>
@@ -9220,7 +9236,7 @@
         <v>0.1073239951107801</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>43830</v>
       </c>
@@ -9240,7 +9256,7 @@
         <v>8.380912505075111E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>43861</v>
       </c>
@@ -9260,7 +9276,7 @@
         <v>-9.1428972799586505E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>43890</v>
       </c>
@@ -9280,7 +9296,7 @@
         <v>-0.2303595796338633</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>43921</v>
       </c>
@@ -9300,7 +9316,7 @@
         <v>-0.48125462925651741</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>43951</v>
       </c>
@@ -9320,7 +9336,7 @@
         <v>0.37169490271509947</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>43982</v>
       </c>
@@ -9340,7 +9356,7 @@
         <v>0.13377235561883791</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>44012</v>
       </c>
@@ -9360,7 +9376,7 @@
         <v>3.2347834360059842E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>44043</v>
       </c>
@@ -9380,7 +9396,7 @@
         <v>0.17696472594060311</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>44074</v>
       </c>
@@ -9400,7 +9416,7 @@
         <v>0.2204534509962062</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>44104</v>
       </c>
@@ -9420,7 +9436,7 @@
         <v>-0.1225655782142708</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>44135</v>
       </c>
@@ -9440,7 +9456,7 @@
         <v>-8.4779906405381689E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>44165</v>
       </c>
@@ -9460,7 +9476,7 @@
         <v>0.35196200230894292</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>44196</v>
       </c>
@@ -9480,7 +9496,7 @@
         <v>0.1114207033489147</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>44227</v>
       </c>
@@ -9500,7 +9516,7 @@
         <v>-3.7081247491007392E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>44255</v>
       </c>
@@ -9520,7 +9536,7 @@
         <v>7.7421527944582902E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>44286</v>
       </c>
@@ -9540,7 +9556,7 @@
         <v>0.13330480395447949</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>44316</v>
       </c>
@@ -9560,7 +9576,7 @@
         <v>0.16172314148626829</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>44347</v>
       </c>
@@ -9580,7 +9596,7 @@
         <v>1.362629577294827E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>44377</v>
       </c>
@@ -9600,7 +9616,7 @@
         <v>6.5894501974895769E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>44408</v>
       </c>
@@ -9620,7 +9636,7 @@
         <v>6.9318542111027837E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>44439</v>
       </c>
@@ -9640,7 +9656,7 @@
         <v>8.9733028068526233E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>44469</v>
       </c>
@@ -9660,7 +9676,7 @@
         <v>-0.13940854637959221</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>44500</v>
       </c>
@@ -9680,7 +9696,7 @@
         <v>0.2189785348976325</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>44530</v>
       </c>
@@ -9700,7 +9716,7 @@
         <v>-2.7127636058181252E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>44561</v>
       </c>
@@ -9720,7 +9736,7 @@
         <v>0.13180098218316119</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>44592</v>
       </c>
@@ -9740,7 +9756,7 @@
         <v>-0.15888844871060481</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>44620</v>
       </c>
@@ -9760,7 +9776,7 @@
         <v>-9.8503472802348613E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>44651</v>
       </c>
@@ -9780,7 +9796,7 @@
         <v>0.1007236784043772</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>44681</v>
       </c>
@@ -9800,7 +9816,7 @@
         <v>-0.25412474042478128</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>44712</v>
       </c>
@@ -9820,7 +9836,7 @@
         <v>-2.128181038356269E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>44742</v>
       </c>
@@ -9840,7 +9856,7 @@
         <v>-0.24930146735787731</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>44773</v>
       </c>
@@ -9860,7 +9876,7 @@
         <v>0.28620796610367871</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>44804</v>
       </c>
@@ -9880,7 +9896,7 @@
         <v>-0.1333336366676601</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>44834</v>
       </c>
@@ -9900,7 +9916,7 @@
         <v>-0.26910285049783311</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>44865</v>
       </c>
@@ -9920,7 +9936,7 @@
         <v>0.23055567527187579</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>44895</v>
       </c>
@@ -9940,7 +9956,7 @@
         <v>0.14387781607618691</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>44926</v>
       </c>
@@ -9960,7 +9976,7 @@
         <v>-0.17726215019085151</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>44957</v>
       </c>
@@ -9980,7 +9996,7 @@
         <v>0.181263063878879</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>44985</v>
       </c>
@@ -10000,7 +10016,7 @@
         <v>-8.7316193361564376E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>45016</v>
       </c>
@@ -10020,7 +10036,7 @@
         <v>9.4219949143376613E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>45046</v>
       </c>
@@ -10040,7 +10056,7 @@
         <v>3.6038475390313802E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>45077</v>
       </c>
@@ -10060,7 +10076,7 @@
         <v>-1.502126320704122E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>45107</v>
       </c>
@@ -10080,7 +10096,7 @@
         <v>0.19124762398479361</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>45138</v>
       </c>
@@ -10100,7 +10116,7 @@
         <v>8.9488560610100798E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>45169</v>
       </c>
@@ -10120,7 +10136,7 @@
         <v>-6.3734886680698932E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>45199</v>
       </c>
@@ -10140,7 +10156,7 @@
         <v>-0.1471117208380214</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>45230</v>
       </c>
@@ -10160,7 +10176,7 @@
         <v>-7.8939947870308447E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>45260</v>
       </c>
@@ -10180,7 +10196,7 @@
         <v>0.28111863910444979</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>45291</v>
       </c>
@@ -10200,7 +10216,7 @@
         <v>0.12925339700311489</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>45322</v>
       </c>
@@ -10220,7 +10236,7 @@
         <v>3.4526731857042359E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>45351</v>
       </c>
@@ -10240,7 +10256,7 @@
         <v>0.14674215621926101</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>45382</v>
       </c>
@@ -10260,7 +10276,7 @@
         <v>8.8351856304143883E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>45412</v>
       </c>
@@ -10280,7 +10296,7 @@
         <v>-0.12969621822690641</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>45443</v>
       </c>
@@ -10300,7 +10316,7 @@
         <v>0.14283398263825761</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>45473</v>
       </c>
@@ -10320,7 +10336,7 @@
         <v>9.8225326885187147E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>45504</v>
       </c>
@@ -10340,7 +10356,7 @@
         <v>1.8089203887143631E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>45535</v>
       </c>
@@ -10360,7 +10376,7 @@
         <v>5.0747928969816281E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>45565</v>
       </c>
